--- a/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
@@ -519,9 +519,6 @@
     <t>Actividad que consolida conocimientos sobre Cambios en el tamaño de la población</t>
   </si>
   <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
     <t>Recurso F13-01</t>
   </si>
   <si>
@@ -745,6 +742,9 @@
   </si>
   <si>
     <t>Actividad que estudia la distribución por edad en las poblaciones en los países en desarrollo</t>
+  </si>
+  <si>
+    <t>Recurso F13-05</t>
   </si>
 </sst>
 </file>
@@ -1039,18 +1039,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1094,6 +1082,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1403,9 +1403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,81 +1435,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="68"/>
+      <c r="N1" s="64"/>
       <c r="O1" s="60" t="s">
         <v>110</v>
       </c>
       <c r="P1" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="77" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="72"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
@@ -1518,11 +1518,11 @@
       </c>
       <c r="O2" s="61"/>
       <c r="P2" s="61"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="63"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1532,10 +1532,10 @@
         <v>123</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="17"/>
@@ -1563,13 +1563,13 @@
         <v>123</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
@@ -1596,13 +1596,13 @@
         <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>125</v>
@@ -1631,13 +1631,13 @@
         <v>123</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>124</v>
@@ -1666,19 +1666,19 @@
         <v>123</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>214</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>215</v>
       </c>
       <c r="H7" s="47">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>20</v>
@@ -1727,19 +1727,19 @@
         <v>123</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>185</v>
-      </c>
       <c r="G8" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="47">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>20</v>
@@ -1774,7 +1774,7 @@
         <v>129</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U8" s="34" t="s">
         <v>131</v>
@@ -1788,17 +1788,17 @@
         <v>127</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="48">
         <v>3</v>
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>20</v>
@@ -1847,10 +1847,10 @@
         <v>123</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="17"/>
@@ -1878,13 +1878,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>225</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>226</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -1911,13 +1911,13 @@
         <v>123</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>225</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>226</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>132</v>
@@ -1946,13 +1946,13 @@
         <v>123</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>225</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>226</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>133</v>
@@ -1981,13 +1981,13 @@
         <v>123</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>225</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>226</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>134</v>
@@ -2016,13 +2016,13 @@
         <v>123</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -2049,17 +2049,17 @@
         <v>123</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="47">
         <v>4</v>
@@ -2068,7 +2068,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>20</v>
@@ -2108,17 +2108,17 @@
         <v>123</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H17" s="47">
         <v>5</v>
@@ -2127,7 +2127,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>20</v>
@@ -2167,17 +2167,17 @@
         <v>127</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="48">
         <v>6</v>
@@ -2212,7 +2212,7 @@
         <v>129</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U18" s="8" t="s">
         <v>131</v>
@@ -2226,10 +2226,10 @@
         <v>123</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="17"/>
@@ -2257,17 +2257,17 @@
         <v>123</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="19"/>
@@ -2292,17 +2292,17 @@
         <v>123</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H21" s="47">
         <v>7</v>
@@ -2351,13 +2351,13 @@
         <v>123</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>136</v>
@@ -2386,13 +2386,13 @@
         <v>123</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>137</v>
@@ -2407,7 +2407,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K23" s="21" t="s">
         <v>20</v>
@@ -2447,13 +2447,13 @@
         <v>123</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>137</v>
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K24" s="41" t="s">
         <v>20</v>
@@ -2494,7 +2494,7 @@
         <v>129</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U24" s="24" t="s">
         <v>131</v>
@@ -2508,10 +2508,10 @@
         <v>123</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>126</v>
@@ -2567,15 +2567,15 @@
         <v>123</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="17"/>
       <c r="G26" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="47">
         <v>11</v>
@@ -2584,18 +2584,18 @@
         <v>20</v>
       </c>
       <c r="J26" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K26" s="21" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P26" s="57" t="s">
         <v>19</v>
@@ -2614,17 +2614,17 @@
         <v>123</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H27" s="47">
         <v>12</v>
@@ -2633,7 +2633,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>20</v>
@@ -2659,7 +2659,7 @@
         <v>129</v>
       </c>
       <c r="T27" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U27" s="24" t="s">
         <v>131</v>
@@ -2673,13 +2673,13 @@
         <v>123</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="54" t="s">
@@ -2692,7 +2692,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>20</v>
@@ -2732,17 +2732,17 @@
         <v>123</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H29" s="47">
         <v>14</v>
@@ -2751,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>20</v>
@@ -2777,7 +2777,7 @@
         <v>129</v>
       </c>
       <c r="T29" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U29" s="24" t="s">
         <v>131</v>
@@ -2791,17 +2791,17 @@
         <v>127</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H30" s="48">
         <v>15</v>
@@ -2810,7 +2810,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>19</v>
@@ -2836,7 +2836,7 @@
         <v>129</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U30" s="8" t="s">
         <v>131</v>
@@ -2850,10 +2850,10 @@
         <v>123</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="17"/>
@@ -2881,20 +2881,20 @@
         <v>123</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="47"/>
       <c r="I32" s="19"/>
       <c r="J32" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
@@ -2916,13 +2916,13 @@
         <v>123</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -2949,13 +2949,13 @@
         <v>123</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -2982,17 +2982,17 @@
         <v>123</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H35" s="47">
         <v>16</v>
@@ -3027,7 +3027,7 @@
         <v>147</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U35" s="24" t="s">
         <v>149</v>
@@ -3041,17 +3041,17 @@
         <v>123</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H36" s="47">
         <v>17</v>
@@ -3060,7 +3060,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>20</v>
@@ -3086,7 +3086,7 @@
         <v>129</v>
       </c>
       <c r="T36" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U36" s="34" t="s">
         <v>131</v>
@@ -3100,16 +3100,16 @@
         <v>127</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>139</v>
@@ -3147,7 +3147,7 @@
         <v>129</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>131</v>
@@ -3161,7 +3161,7 @@
         <v>123</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>141</v>
@@ -3178,7 +3178,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>20</v>
@@ -3218,7 +3218,7 @@
         <v>123</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>141</v>
@@ -3226,7 +3226,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H39" s="47">
         <v>20</v>
@@ -3235,7 +3235,7 @@
         <v>19</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>20</v>
@@ -3243,10 +3243,10 @@
       <c r="L39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23" t="s">
-        <v>121</v>
-      </c>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="23"/>
       <c r="O39" s="45" t="s">
         <v>150</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>147</v>
       </c>
       <c r="T39" s="35" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="U39" s="34" t="s">
         <v>149</v>
@@ -3277,7 +3277,7 @@
         <v>123</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>141</v>
@@ -3285,7 +3285,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H40" s="47">
         <v>21</v>
@@ -3294,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>20</v>
@@ -3302,10 +3302,10 @@
       <c r="L40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23" t="s">
-        <v>121</v>
-      </c>
+      <c r="M40" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40" s="23"/>
       <c r="O40" s="45"/>
       <c r="P40" s="47"/>
       <c r="Q40" s="34">
@@ -3332,7 +3332,7 @@
         <v>123</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>141</v>
@@ -3340,7 +3340,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H41" s="47">
         <v>22</v>
@@ -3349,7 +3349,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>20</v>
@@ -3357,10 +3357,10 @@
       <c r="L41" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23" t="s">
-        <v>121</v>
-      </c>
+      <c r="M41" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N41" s="23"/>
       <c r="O41" s="45"/>
       <c r="P41" s="47"/>
       <c r="Q41" s="34">
@@ -3387,7 +3387,7 @@
         <v>123</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>141</v>
@@ -3395,7 +3395,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H42" s="47">
         <v>23</v>
@@ -3404,7 +3404,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>20</v>
@@ -3412,10 +3412,10 @@
       <c r="L42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23" t="s">
-        <v>121</v>
-      </c>
+      <c r="M42" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N42" s="23"/>
       <c r="O42" s="45"/>
       <c r="P42" s="47"/>
       <c r="Q42" s="34">
@@ -3428,7 +3428,7 @@
         <v>147</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="U42" s="34" t="s">
         <v>149</v>
@@ -3442,7 +3442,7 @@
         <v>123</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>142</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K43" s="29" t="s">
         <v>20</v>
@@ -3483,7 +3483,7 @@
         <v>127</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>142</v>
@@ -3526,7 +3526,7 @@
         <v>129</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U44" s="8" t="s">
         <v>131</v>
@@ -3540,7 +3540,7 @@
         <v>127</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>142</v>
@@ -3548,7 +3548,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H45" s="48">
         <v>26</v>
@@ -4137,6 +4137,12 @@
   </sheetData>
   <autoFilter ref="A2:U45"/>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N1"/>
@@ -4151,12 +4157,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA 1\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado08\guion08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="CN_08_08_CO" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_08_08_CO!$A$2:$U$45</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -408,9 +403,6 @@
     <t>Consolidación</t>
   </si>
   <si>
-    <t>CN_07_08_CO</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -745,6 +737,9 @@
   </si>
   <si>
     <t>Recurso F13-05</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1034,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1082,18 +1089,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1157,7 +1152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1192,7 +1187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1403,9 +1398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38:M42"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,81 +1430,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="64"/>
+      <c r="N1" s="68"/>
       <c r="O1" s="60" t="s">
         <v>110</v>
       </c>
       <c r="P1" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="77" t="s">
+      <c r="S1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="T1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="62" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
@@ -1518,11 +1513,11 @@
       </c>
       <c r="O2" s="61"/>
       <c r="P2" s="61"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="78"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1532,10 +1527,10 @@
         <v>123</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="17"/>
@@ -1563,13 +1558,13 @@
         <v>123</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
@@ -1596,13 +1591,13 @@
         <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>125</v>
@@ -1631,13 +1626,13 @@
         <v>123</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>124</v>
@@ -1666,19 +1661,19 @@
         <v>123</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>214</v>
       </c>
       <c r="H7" s="47">
         <v>1</v>
@@ -1687,7 +1682,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>20</v>
@@ -1707,16 +1702,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="T7" s="35" t="s">
+      <c r="U7" s="34" t="s">
         <v>148</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1727,19 +1722,19 @@
         <v>123</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>184</v>
-      </c>
       <c r="G8" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" s="47">
         <v>2</v>
@@ -1748,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>20</v>
@@ -1768,37 +1763,37 @@
         <v>6</v>
       </c>
       <c r="R8" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="S8" s="34" t="s">
-        <v>129</v>
-      </c>
       <c r="T8" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>127</v>
+      <c r="B9" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H9" s="48">
         <v>3</v>
@@ -1807,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>20</v>
@@ -1827,16 +1822,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="T9" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="U9" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1847,10 +1842,10 @@
         <v>123</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="17"/>
@@ -1878,13 +1873,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>224</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>225</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -1911,16 +1906,16 @@
         <v>123</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>225</v>
-      </c>
       <c r="F12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="47"/>
@@ -1946,16 +1941,16 @@
         <v>123</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>225</v>
-      </c>
       <c r="F13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="47"/>
@@ -1981,16 +1976,16 @@
         <v>123</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>225</v>
-      </c>
       <c r="F14" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="47"/>
@@ -2016,13 +2011,13 @@
         <v>123</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -2049,17 +2044,17 @@
         <v>123</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="47">
         <v>4</v>
@@ -2068,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>20</v>
@@ -2088,16 +2083,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2108,17 +2103,17 @@
         <v>123</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="47">
         <v>5</v>
@@ -2127,7 +2122,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>20</v>
@@ -2147,37 +2142,37 @@
         <v>6</v>
       </c>
       <c r="R17" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="S17" s="34" t="s">
-        <v>129</v>
-      </c>
       <c r="T17" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>127</v>
+      <c r="B18" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="48">
         <v>6</v>
@@ -2186,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>20</v>
@@ -2206,16 +2201,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S18" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="T18" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2226,10 +2221,10 @@
         <v>123</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="17"/>
@@ -2257,17 +2252,17 @@
         <v>123</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="19"/>
@@ -2292,17 +2287,17 @@
         <v>123</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H21" s="47">
         <v>7</v>
@@ -2311,7 +2306,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>20</v>
@@ -2331,16 +2326,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="S21" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="S21" s="34" t="s">
-        <v>129</v>
-      </c>
       <c r="T21" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2351,16 +2346,16 @@
         <v>123</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="47"/>
@@ -2386,19 +2381,19 @@
         <v>123</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F23" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="47">
         <v>8</v>
@@ -2407,7 +2402,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K23" s="21" t="s">
         <v>20</v>
@@ -2427,16 +2422,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T23" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U23" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2447,19 +2442,19 @@
         <v>123</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H24" s="50">
         <v>9</v>
@@ -2468,7 +2463,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K24" s="41" t="s">
         <v>20</v>
@@ -2488,37 +2483,37 @@
         <v>6</v>
       </c>
       <c r="R24" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="S24" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="S24" s="24" t="s">
-        <v>129</v>
-      </c>
       <c r="T24" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U24" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="48">
         <v>10</v>
@@ -2527,7 +2522,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>20</v>
@@ -2547,16 +2542,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S25" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S25" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="T25" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U25" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2567,15 +2562,15 @@
         <v>123</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="17"/>
       <c r="G26" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H26" s="47">
         <v>11</v>
@@ -2584,18 +2579,18 @@
         <v>20</v>
       </c>
       <c r="J26" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K26" s="21" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P26" s="57" t="s">
         <v>19</v>
@@ -2614,17 +2609,17 @@
         <v>123</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H27" s="47">
         <v>12</v>
@@ -2633,7 +2628,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>20</v>
@@ -2653,16 +2648,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="S27" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="S27" s="24" t="s">
-        <v>129</v>
-      </c>
       <c r="T27" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U27" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2673,17 +2668,17 @@
         <v>123</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="47">
         <v>13</v>
@@ -2692,7 +2687,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>20</v>
@@ -2712,16 +2707,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T28" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U28" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2732,17 +2727,17 @@
         <v>123</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H29" s="47">
         <v>14</v>
@@ -2751,7 +2746,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>20</v>
@@ -2771,37 +2766,37 @@
         <v>6</v>
       </c>
       <c r="R29" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="S29" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="S29" s="24" t="s">
-        <v>129</v>
-      </c>
       <c r="T29" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U29" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>127</v>
+      <c r="B30" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H30" s="48">
         <v>15</v>
@@ -2810,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>19</v>
@@ -2830,16 +2825,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S30" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="T30" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2850,10 +2845,10 @@
         <v>123</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="17"/>
@@ -2881,20 +2876,20 @@
         <v>123</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="47"/>
       <c r="I32" s="19"/>
       <c r="J32" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
@@ -2916,13 +2911,13 @@
         <v>123</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -2949,13 +2944,13 @@
         <v>123</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -2982,17 +2977,17 @@
         <v>123</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H35" s="47">
         <v>16</v>
@@ -3001,7 +2996,7 @@
         <v>19</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>20</v>
@@ -3021,16 +3016,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S35" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U35" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3041,17 +3036,17 @@
         <v>123</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H36" s="47">
         <v>17</v>
@@ -3060,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>20</v>
@@ -3080,39 +3075,39 @@
         <v>6</v>
       </c>
       <c r="R36" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="S36" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="34" t="s">
-        <v>129</v>
-      </c>
       <c r="T36" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U36" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>127</v>
+      <c r="B37" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H37" s="48">
         <v>18</v>
@@ -3121,7 +3116,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>20</v>
@@ -3141,16 +3136,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S37" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="T37" s="9" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3161,15 +3156,15 @@
         <v>123</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="17"/>
       <c r="G38" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H38" s="47">
         <v>19</v>
@@ -3178,7 +3173,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>20</v>
@@ -3198,16 +3193,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S38" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T38" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U38" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3218,15 +3213,15 @@
         <v>123</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H39" s="47">
         <v>20</v>
@@ -3235,7 +3230,7 @@
         <v>19</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>20</v>
@@ -3248,7 +3243,7 @@
       </c>
       <c r="N39" s="23"/>
       <c r="O39" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P39" s="47" t="s">
         <v>20</v>
@@ -3257,16 +3252,16 @@
         <v>6</v>
       </c>
       <c r="R39" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S39" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T39" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U39" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3277,15 +3272,15 @@
         <v>123</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H40" s="47">
         <v>21</v>
@@ -3294,7 +3289,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>20</v>
@@ -3312,16 +3307,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S40" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T40" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U40" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3332,15 +3327,15 @@
         <v>123</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H41" s="47">
         <v>22</v>
@@ -3349,7 +3344,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>20</v>
@@ -3367,16 +3362,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T41" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U41" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3387,15 +3382,15 @@
         <v>123</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H42" s="47">
         <v>23</v>
@@ -3404,7 +3399,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>20</v>
@@ -3422,30 +3417,30 @@
         <v>6</v>
       </c>
       <c r="R42" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S42" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U42" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="5"/>
@@ -3457,7 +3452,7 @@
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K43" s="29" t="s">
         <v>20</v>
@@ -3479,19 +3474,19 @@
       <c r="A44" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>127</v>
+      <c r="B44" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" s="48">
         <v>25</v>
@@ -3500,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K44" s="29" t="s">
         <v>20</v>
@@ -3520,35 +3515,35 @@
         <v>6</v>
       </c>
       <c r="R44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S44" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S44" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="T44" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>127</v>
+      <c r="B45" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="48">
         <v>26</v>
@@ -3557,7 +3552,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K45" s="29" t="s">
         <v>20</v>
@@ -3577,16 +3572,16 @@
         <v>6</v>
       </c>
       <c r="R45" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S45" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S45" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="T45" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4135,14 +4130,7 @@
     <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:U45"/>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N1"/>
@@ -4157,6 +4145,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19320" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="CN_08_08_CO" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="DATOS" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_08_08_CO!$A$2:$U$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_08_08_CO!$P$1:$P$267</definedName>
   </definedNames>
   <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="243">
   <si>
     <t>Asignatura</t>
   </si>
@@ -610,9 +610,6 @@
     <t>Media principal que muestra la evolución de los homínidos</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
     <t>http://profesores.aulaplaneta.com/AuxPages/RecursoProfesor.aspx?IdGuion=14150&amp;IdRecurso=727234&amp;Transparent=on</t>
   </si>
   <si>
@@ -740,6 +737,18 @@
   </si>
   <si>
     <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos adicionales 01</t>
+  </si>
+  <si>
+    <t>Video como media principal - 01</t>
+  </si>
+  <si>
+    <t>RF_01_02_CO</t>
   </si>
 </sst>
 </file>
@@ -1396,11 +1405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U267"/>
+  <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1536,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>181</v>
@@ -1558,13 +1567,13 @@
         <v>123</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>175</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
@@ -1591,7 +1600,7 @@
         <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>175</v>
@@ -1626,7 +1635,7 @@
         <v>123</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>175</v>
@@ -1661,7 +1670,7 @@
         <v>123</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>175</v>
@@ -1673,7 +1682,7 @@
         <v>183</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H7" s="47">
         <v>1</v>
@@ -1682,7 +1691,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>20</v>
@@ -1722,7 +1731,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>175</v>
@@ -1743,7 +1752,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>20</v>
@@ -1783,7 +1792,7 @@
         <v>123</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>175</v>
@@ -1842,10 +1851,10 @@
         <v>123</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="17"/>
@@ -1873,13 +1882,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>223</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>224</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -1906,13 +1915,13 @@
         <v>123</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>223</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>224</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>131</v>
@@ -1941,13 +1950,13 @@
         <v>123</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>223</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>224</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>132</v>
@@ -1976,13 +1985,13 @@
         <v>123</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>223</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>224</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>133</v>
@@ -2011,10 +2020,10 @@
         <v>123</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>184</v>
@@ -2044,13 +2053,13 @@
         <v>123</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="18" t="s">
@@ -2103,13 +2112,13 @@
         <v>123</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="55" t="s">
@@ -2162,10 +2171,10 @@
         <v>123</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>126</v>
@@ -2207,7 +2216,7 @@
         <v>128</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U18" s="8" t="s">
         <v>130</v>
@@ -2221,10 +2230,10 @@
         <v>123</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="17"/>
@@ -2252,10 +2261,10 @@
         <v>123</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>187</v>
@@ -2287,10 +2296,10 @@
         <v>123</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>189</v>
@@ -2346,10 +2355,10 @@
         <v>123</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>191</v>
@@ -2381,10 +2390,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>191</v>
@@ -2442,10 +2451,10 @@
         <v>123</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>191</v>
@@ -2463,7 +2472,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K24" s="41" t="s">
         <v>20</v>
@@ -2503,10 +2512,10 @@
         <v>123</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>126</v>
@@ -2562,7 +2571,7 @@
         <v>123</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>193</v>
@@ -2585,21 +2594,31 @@
         <v>19</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P26" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="24"/>
+      <c r="Q26" s="24">
+        <v>6</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="S26" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="T26" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="U26" s="24" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
@@ -2609,17 +2628,17 @@
         <v>123</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>193</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H27" s="47">
         <v>12</v>
@@ -2628,7 +2647,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>20</v>
@@ -2654,7 +2673,7 @@
         <v>128</v>
       </c>
       <c r="T27" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U27" s="24" t="s">
         <v>130</v>
@@ -2668,13 +2687,13 @@
         <v>123</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>193</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="54" t="s">
@@ -2687,7 +2706,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>20</v>
@@ -2727,13 +2746,13 @@
         <v>123</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="54" t="s">
@@ -2786,7 +2805,7 @@
         <v>123</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>193</v>
@@ -2796,7 +2815,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H30" s="48">
         <v>15</v>
@@ -2805,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>19</v>
@@ -2831,7 +2850,7 @@
         <v>128</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U30" s="8" t="s">
         <v>130</v>
@@ -2845,10 +2864,10 @@
         <v>123</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="17"/>
@@ -2876,13 +2895,13 @@
         <v>123</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -2911,13 +2930,13 @@
         <v>123</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -2944,13 +2963,13 @@
         <v>123</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -2977,13 +2996,13 @@
         <v>123</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="54" t="s">
@@ -3022,7 +3041,7 @@
         <v>146</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U35" s="24" t="s">
         <v>148</v>
@@ -3036,17 +3055,17 @@
         <v>123</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="47">
         <v>17</v>
@@ -3081,7 +3100,7 @@
         <v>128</v>
       </c>
       <c r="T36" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U36" s="34" t="s">
         <v>130</v>
@@ -3095,10 +3114,10 @@
         <v>123</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>126</v>
@@ -3142,7 +3161,7 @@
         <v>128</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>130</v>
@@ -3156,7 +3175,7 @@
         <v>123</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>140</v>
@@ -3173,7 +3192,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>20</v>
@@ -3213,7 +3232,7 @@
         <v>123</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>140</v>
@@ -3230,7 +3249,7 @@
         <v>19</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>20</v>
@@ -3258,7 +3277,7 @@
         <v>146</v>
       </c>
       <c r="T39" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U39" s="34" t="s">
         <v>148</v>
@@ -3272,7 +3291,7 @@
         <v>123</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>140</v>
@@ -3280,7 +3299,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H40" s="47">
         <v>21</v>
@@ -3289,7 +3308,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>20</v>
@@ -3313,7 +3332,7 @@
         <v>146</v>
       </c>
       <c r="T40" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U40" s="34" t="s">
         <v>148</v>
@@ -3327,7 +3346,7 @@
         <v>123</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>140</v>
@@ -3335,7 +3354,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H41" s="47">
         <v>22</v>
@@ -3344,7 +3363,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>20</v>
@@ -3368,7 +3387,7 @@
         <v>146</v>
       </c>
       <c r="T41" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U41" s="34" t="s">
         <v>148</v>
@@ -3382,7 +3401,7 @@
         <v>123</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>140</v>
@@ -3390,7 +3409,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H42" s="47">
         <v>23</v>
@@ -3399,7 +3418,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>20</v>
@@ -3423,7 +3442,7 @@
         <v>146</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U42" s="34" t="s">
         <v>148</v>
@@ -3437,7 +3456,7 @@
         <v>123</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>141</v>
@@ -3452,7 +3471,7 @@
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K43" s="29" t="s">
         <v>20</v>
@@ -3478,7 +3497,7 @@
         <v>123</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>141</v>
@@ -3535,7 +3554,7 @@
         <v>123</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>141</v>
@@ -3768,367 +3787,191 @@
       <c r="T53" s="25"/>
       <c r="U53" s="24"/>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="O1:O2"/>

--- a/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA 1\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado08\guion08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19320" windowHeight="9150"/>
   </bookViews>
@@ -1043,18 +1048,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,6 +1091,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,7 +1166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,7 +1201,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1409,7 +1414,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P2"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,81 +1444,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="68"/>
+      <c r="N1" s="64"/>
       <c r="O1" s="60" t="s">
         <v>110</v>
       </c>
       <c r="P1" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="77" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="72"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
@@ -1522,11 +1527,11 @@
       </c>
       <c r="O2" s="61"/>
       <c r="P2" s="61"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="63"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -2325,7 +2330,7 @@
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O21" s="17"/>
       <c r="P21" s="47" t="s">
@@ -2482,7 +2487,7 @@
       </c>
       <c r="M24" s="43"/>
       <c r="N24" s="43" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="50" t="s">
@@ -3974,6 +3979,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N1"/>
@@ -3988,12 +3999,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA 1\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado08\guion08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19320" windowHeight="9150"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_08_08_CO!$P$1:$P$267</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="240">
   <si>
     <t>Asignatura</t>
   </si>
@@ -444,9 +439,6 @@
     <t xml:space="preserve">Refuerza tu aprendizaje: La demografía humana </t>
   </si>
   <si>
-    <t>Actividad que consolida conocimientos sobre La demografía humana</t>
-  </si>
-  <si>
     <t>Competencias</t>
   </si>
   <si>
@@ -477,24 +469,15 @@
     <t>http://profesores.aulaplaneta.com/AuxPages/RecursoProfesor.aspx?IdGuion=14209&amp;IdRecurso=731278&amp;Transparent=on</t>
   </si>
   <si>
-    <t>Test con imágenes sobre los tipos de crecimiento, exponencial y  logístico, en las poblaciones</t>
-  </si>
-  <si>
     <t>Recurso F6-01</t>
   </si>
   <si>
     <t>Recurso M5D-01</t>
   </si>
   <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Estrategias de vida y curvas sobrevivencia</t>
   </si>
   <si>
-    <t>Actividad que consolida conocimientos sobre las Estrategias de vida y las curvas sobrevivencia</t>
-  </si>
-  <si>
     <t>Las estrategias de vida k y r</t>
   </si>
   <si>
@@ -507,18 +490,6 @@
     <t>Recurso F8-02</t>
   </si>
   <si>
-    <t>Interactivo en el que se describen las principales características de las poblaciones humanas</t>
-  </si>
-  <si>
-    <t>Proyecto: determinación de la densidad de una población de cochinillas</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre Cambios en el tamaño de la población</t>
-  </si>
-  <si>
-    <t>Recurso F13-01</t>
-  </si>
-  <si>
     <t>Recurso M10B-01</t>
   </si>
   <si>
@@ -528,45 +499,24 @@
     <t>Recurso M4A-01</t>
   </si>
   <si>
-    <t>Recurso M5A-02</t>
-  </si>
-  <si>
     <t>Distribución espacial de los individuos en las poblaciones</t>
   </si>
   <si>
     <t>Los parámetros que inciden en los cambios de tamaño de la población</t>
   </si>
   <si>
-    <t>Interactivo en el que se muestran gráficas y ejemplos sobre las curvas de sobrevivencia</t>
-  </si>
-  <si>
     <t>La evolución de la especie humana</t>
   </si>
   <si>
     <t>El crecimiento de la población humana a través del tiempo</t>
   </si>
   <si>
-    <t>La pirámide poblacional de Colombia</t>
-  </si>
-  <si>
     <t>Banco de actividades: Las poblaciones</t>
   </si>
   <si>
     <t xml:space="preserve">Las características de la población </t>
   </si>
   <si>
-    <t xml:space="preserve">Test sobre las principales características de las poblaciones humanas </t>
-  </si>
-  <si>
-    <t>Test con texto largo sobre los parámetros que inciden en los cambios de tamaño de la población</t>
-  </si>
-  <si>
-    <t>Interactivo en el que se ordenan cronológicamente las diferentes etapas de la evolución de la especie humana</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre Las características de la población</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: Las características de la población </t>
   </si>
   <si>
@@ -603,9 +553,6 @@
     <t>¿Qué son las estrategias de vida?</t>
   </si>
   <si>
-    <t>Interactivo sobre la dinámica de las poblaciones</t>
-  </si>
-  <si>
     <t>¿De dónde proviene la población humana?</t>
   </si>
   <si>
@@ -624,9 +571,6 @@
     <t>¿Cómo se originó la especie humana?</t>
   </si>
   <si>
-    <t>Actividad que consolida conocimientos sobre las poblaciones de homínidos</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Evolución y dispersión de los homínidos</t>
   </si>
   <si>
@@ -642,21 +586,6 @@
     <t>Crecimiento y distribución de las poblaciones humanas</t>
   </si>
   <si>
-    <t>Nubes de langostas en África</t>
-  </si>
-  <si>
-    <t>Los primates y la estrategia k</t>
-  </si>
-  <si>
-    <t>Las pirámides de edad en los países en desarrollo y en los desarrollados</t>
-  </si>
-  <si>
-    <t>Los cromagnones y los neanthertales</t>
-  </si>
-  <si>
-    <t>Tarea en la que se propone a los estudiantes desarrollar una investigación sobre los cromagnones y los neanthertales</t>
-  </si>
-  <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
@@ -666,27 +595,12 @@
     <t>Las características de una población natural</t>
   </si>
   <si>
-    <t>Test con imágenes sobre las estrategias de vida k y r</t>
-  </si>
-  <si>
     <t>Interactivo que muestra diagramas y ejemplos sobre la distribución espacial, tamaño y densidad de las poblaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que trata sobre la distribución espacial de los individuos en las poblaciones, en el que se ubican imágenes en su respectivo contenedor </t>
-  </si>
-  <si>
     <t>Mapa conceptual sobre las poblaciones naturales y humanas</t>
   </si>
   <si>
-    <t>Recurso F13-02</t>
-  </si>
-  <si>
-    <t>Recurso F13-03</t>
-  </si>
-  <si>
-    <t>Recurso F13-04</t>
-  </si>
-  <si>
     <t>Estudios demográficos</t>
   </si>
   <si>
@@ -720,27 +634,6 @@
     <t>Recurso F4-01</t>
   </si>
   <si>
-    <t>Actividad que guía el trabajo para la determinación de la densidad de una población de cochinillas por medio del método de captura y recaptura</t>
-  </si>
-  <si>
-    <t>interactivo que presenta una descripción, en orden cronológico,de las diferentes etapas de dispersión de la especie humana por el planeta Tierra</t>
-  </si>
-  <si>
-    <t>Actividad en la que se elabora y analiza la pirámide poblacional de Colombia fundamentada en datos obtenidos del DANE</t>
-  </si>
-  <si>
-    <t>Actividad en la que se estudia un evento de la población de langostas</t>
-  </si>
-  <si>
-    <t>Actividad que permite relacionar una población de primates con su estrategia reproductiva</t>
-  </si>
-  <si>
-    <t>Actividad que estudia la distribución por edad en las poblaciones en los países en desarrollo</t>
-  </si>
-  <si>
-    <t>Recurso F13-05</t>
-  </si>
-  <si>
     <t>Recurso M101A-05</t>
   </si>
   <si>
@@ -754,6 +647,99 @@
   </si>
   <si>
     <t>RF_01_02_CO</t>
+  </si>
+  <si>
+    <t>Recurso M8A-02</t>
+  </si>
+  <si>
+    <t>Recurso M8A-03</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-03</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-04</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para reconocer los tipos de distribución espacial de los individuos en las poblaciones </t>
+  </si>
+  <si>
+    <t>Actividad para reforzar conocimientos sobre Las características de la población</t>
+  </si>
+  <si>
+    <t>Interactivo para comprender aspectos relacionados con la dinámica de las poblaciones</t>
+  </si>
+  <si>
+    <t>Test para determinar los parámetros que inciden en los cambios de tamaño de la población</t>
+  </si>
+  <si>
+    <t>Interactivo que explica las de curvas de sobrevivencia y sus características</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer los tipos de crecimiento, exponencial y  logístico, en las poblaciones</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las estrategias de vida, k y r, de las poblaciones</t>
+  </si>
+  <si>
+    <t>Actividad para repasar conocimientos sobre Parámetros que determinan la densidad de las poblaciones</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar conocimientos sobre Estrategias de vida curvas sobrevivencia</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar conocimientos sobre Evolución y dispersión de los homínidos</t>
+  </si>
+  <si>
+    <t>interactivo que presenta las etapas de dispersión de la especie humana por el planeta Tierra</t>
+  </si>
+  <si>
+    <t>Actividad para ordenar cronológicamente las etapas de la evolución de la especie humana</t>
+  </si>
+  <si>
+    <t>Interactivo que describe las principales características de las poblaciones humanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar las principales características de las poblaciones humanas </t>
+  </si>
+  <si>
+    <t>Actividad para afianzar conocimientos sobre La demografía humana</t>
+  </si>
+  <si>
+    <t>Actividad que  propone determinar la densidad de una población de cochinillas</t>
+  </si>
+  <si>
+    <t>Actividad que propone elaborar  y analizar la pirámide poblacional de Colombia</t>
+  </si>
+  <si>
+    <t>Actividad que propone estudiar un evento de la población de langostas</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar una comparación entre los cromagnones y los neanderthales</t>
+  </si>
+  <si>
+    <t>Actividad que propone comparar las pirámides poblacionales de un país  desarrollado con uno en vía de desarrollo</t>
+  </si>
+  <si>
+    <t>Competencias: determinación de la densidad de una población de cochinillas</t>
+  </si>
+  <si>
+    <t>Competencias: análisis de la pirámide poblacional de Colombia</t>
+  </si>
+  <si>
+    <t>Competencias: estudio de las nubes de langostas en África</t>
+  </si>
+  <si>
+    <t>Competencias: comparación entre los cromagnones y los neanderthales</t>
+  </si>
+  <si>
+    <t>Competencias: análisis de las pirámides poblacionales en los países en desarrollo y en los desarrollados</t>
   </si>
 </sst>
 </file>
@@ -939,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1042,10 +1028,42 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,18 +1111,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1115,9 +1121,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1166,7 +1169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,7 +1204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1412,9 +1415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,94 +1447,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="77" t="s">
+      <c r="S1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="T1" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="72" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="78"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1541,10 +1544,10 @@
         <v>123</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="17"/>
@@ -1572,13 +1575,13 @@
         <v>123</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
@@ -1605,13 +1608,13 @@
         <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>125</v>
@@ -1640,13 +1643,13 @@
         <v>123</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>124</v>
@@ -1675,19 +1678,19 @@
         <v>123</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="H7" s="47">
         <v>1</v>
@@ -1696,7 +1699,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>20</v>
@@ -1719,13 +1722,13 @@
         <v>127</v>
       </c>
       <c r="S7" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="T7" s="35" t="s">
+      <c r="U7" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1736,19 +1739,19 @@
         <v>123</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H8" s="47">
         <v>2</v>
@@ -1783,7 +1786,7 @@
         <v>128</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U8" s="34" t="s">
         <v>130</v>
@@ -1797,17 +1800,17 @@
         <v>123</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H9" s="48">
         <v>3</v>
@@ -1816,7 +1819,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>20</v>
@@ -1856,10 +1859,10 @@
         <v>123</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="17"/>
@@ -1887,13 +1890,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -1920,13 +1923,13 @@
         <v>123</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>131</v>
@@ -1955,13 +1958,13 @@
         <v>123</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>132</v>
@@ -1990,13 +1993,13 @@
         <v>123</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>133</v>
@@ -2025,13 +2028,13 @@
         <v>123</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -2058,17 +2061,17 @@
         <v>123</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="18" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H16" s="47">
         <v>4</v>
@@ -2077,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>20</v>
@@ -2100,13 +2103,13 @@
         <v>127</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2117,17 +2120,17 @@
         <v>123</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="55" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H17" s="47">
         <v>5</v>
@@ -2136,7 +2139,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>20</v>
@@ -2162,7 +2165,7 @@
         <v>128</v>
       </c>
       <c r="T17" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U17" s="34" t="s">
         <v>130</v>
@@ -2176,17 +2179,17 @@
         <v>123</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="H18" s="48">
         <v>6</v>
@@ -2195,7 +2198,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>20</v>
@@ -2221,7 +2224,7 @@
         <v>128</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="U18" s="8" t="s">
         <v>130</v>
@@ -2235,10 +2238,10 @@
         <v>123</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="17"/>
@@ -2266,18 +2269,16 @@
         <v>123</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F20" s="53"/>
-      <c r="G20" s="54" t="s">
-        <v>188</v>
-      </c>
+      <c r="G20" s="18"/>
       <c r="H20" s="47"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
@@ -2287,9 +2288,9 @@
       <c r="N20" s="23"/>
       <c r="O20" s="17"/>
       <c r="P20" s="47"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
       <c r="T20" s="25"/>
       <c r="U20" s="24"/>
     </row>
@@ -2301,56 +2302,30 @@
         <v>123</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="H21" s="47">
-        <v>7</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="23"/>
-      <c r="N21" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="N21" s="23"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="34">
-        <v>6</v>
-      </c>
-      <c r="R21" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="S21" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>130</v>
-      </c>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="34"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -2360,32 +2335,58 @@
         <v>123</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
+      <c r="G22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="47">
+        <v>7</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="N22" s="23"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="34"/>
+      <c r="P22" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>6</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="T22" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
@@ -2395,42 +2396,42 @@
         <v>123</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>136</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="H23" s="47">
         <v>8</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K23" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="O23" s="17"/>
       <c r="P23" s="47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="34">
         <v>6</v>
@@ -2439,13 +2440,13 @@
         <v>127</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="T23" s="35" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="U23" s="34" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2456,19 +2457,19 @@
         <v>123</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>136</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H24" s="50">
         <v>9</v>
@@ -2477,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K24" s="41" t="s">
         <v>20</v>
@@ -2503,7 +2504,7 @@
         <v>128</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="U24" s="24" t="s">
         <v>130</v>
@@ -2517,17 +2518,17 @@
         <v>123</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H25" s="48">
         <v>10</v>
@@ -2536,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>20</v>
@@ -2576,54 +2577,28 @@
         <v>123</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="47">
-        <v>11</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>6</v>
-      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
-      <c r="O26" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="P26" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="24">
-        <v>6</v>
-      </c>
-      <c r="R26" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="S26" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="T26" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="U26" s="24" t="s">
-        <v>242</v>
-      </c>
+      <c r="O26" s="45"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="24"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
@@ -2633,55 +2608,55 @@
         <v>123</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F27" s="17"/>
-      <c r="G27" s="18" t="s">
-        <v>208</v>
+      <c r="G27" s="54" t="s">
+        <v>178</v>
       </c>
       <c r="H27" s="47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>209</v>
+        <v>19</v>
+      </c>
+      <c r="J27" s="56" t="s">
+        <v>179</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O27" s="45"/>
-      <c r="P27" s="47" t="s">
-        <v>20</v>
+      <c r="N27" s="23"/>
+      <c r="O27" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="P27" s="57" t="s">
+        <v>19</v>
       </c>
       <c r="Q27" s="24">
         <v>6</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="S27" s="24" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="T27" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="U27" s="24" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2692,26 +2667,26 @@
         <v>123</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H28" s="47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>20</v>
@@ -2734,13 +2709,13 @@
         <v>127</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T28" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="U28" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2751,26 +2726,26 @@
         <v>123</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="54" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H29" s="47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>20</v>
@@ -2780,7 +2755,7 @@
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O29" s="17"/>
       <c r="P29" s="47" t="s">
@@ -2796,7 +2771,7 @@
         <v>128</v>
       </c>
       <c r="T29" s="25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="U29" s="24" t="s">
         <v>130</v>
@@ -2810,26 +2785,26 @@
         <v>123</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H30" s="48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>19</v>
@@ -2855,7 +2830,7 @@
         <v>128</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="U30" s="8" t="s">
         <v>130</v>
@@ -2869,10 +2844,10 @@
         <v>123</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="17"/>
@@ -2900,20 +2875,20 @@
         <v>123</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="47"/>
       <c r="I32" s="19"/>
       <c r="J32" s="56" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
@@ -2935,13 +2910,13 @@
         <v>123</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -2968,13 +2943,13 @@
         <v>123</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -3001,26 +2976,26 @@
         <v>123</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="54" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H35" s="47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>20</v>
@@ -3043,13 +3018,13 @@
         <v>127</v>
       </c>
       <c r="S35" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="U35" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3060,26 +3035,26 @@
         <v>123</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="H36" s="47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>20</v>
@@ -3105,7 +3080,7 @@
         <v>128</v>
       </c>
       <c r="T36" s="35" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="U36" s="34" t="s">
         <v>130</v>
@@ -3119,28 +3094,28 @@
         <v>123</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>138</v>
       </c>
       <c r="H37" s="48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>20</v>
@@ -3166,7 +3141,7 @@
         <v>128</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>130</v>
@@ -3180,35 +3155,35 @@
         <v>123</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="17"/>
       <c r="G38" s="18" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="H38" s="47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N38" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="N38" s="65" t="s">
+        <v>121</v>
+      </c>
       <c r="O38" s="17"/>
       <c r="P38" s="47" t="s">
         <v>19</v>
@@ -3220,13 +3195,13 @@
         <v>127</v>
       </c>
       <c r="S38" s="34" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="T38" s="35" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="U38" s="34" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3237,37 +3212,37 @@
         <v>123</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="H39" s="47">
+        <v>19</v>
+      </c>
+      <c r="I39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="19" t="s">
-        <v>19</v>
-      </c>
       <c r="J39" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="M39" s="23"/>
+      <c r="N39" s="65" t="s">
+        <v>121</v>
+      </c>
       <c r="O39" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P39" s="47" t="s">
         <v>20</v>
@@ -3279,13 +3254,13 @@
         <v>127</v>
       </c>
       <c r="S39" s="34" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="T39" s="35" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="U39" s="34" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3296,35 +3271,35 @@
         <v>123</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="H40" s="47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N40" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="M40" s="23"/>
+      <c r="N40" s="65" t="s">
+        <v>121</v>
+      </c>
       <c r="O40" s="45"/>
       <c r="P40" s="47"/>
       <c r="Q40" s="34">
@@ -3334,13 +3309,13 @@
         <v>127</v>
       </c>
       <c r="S40" s="34" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="T40" s="35" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="U40" s="34" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3351,51 +3326,53 @@
         <v>123</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H41" s="47">
-        <v>22</v>
-      </c>
-      <c r="I41" s="19" t="s">
+      <c r="G41" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="69">
+        <v>21</v>
+      </c>
+      <c r="I41" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="K41" s="21" t="s">
+      <c r="J41" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="34">
+      <c r="L41" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="68"/>
+      <c r="P41" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="66">
         <v>6</v>
       </c>
-      <c r="R41" s="34" t="s">
+      <c r="R41" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="S41" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="T41" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="U41" s="34" t="s">
-        <v>148</v>
+      <c r="S41" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="T41" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="U41" s="66" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3406,35 +3383,35 @@
         <v>123</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="H42" s="47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N42" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="M42" s="23"/>
+      <c r="N42" s="65" t="s">
+        <v>121</v>
+      </c>
       <c r="O42" s="45"/>
       <c r="P42" s="47"/>
       <c r="Q42" s="34">
@@ -3444,13 +3421,13 @@
         <v>127</v>
       </c>
       <c r="S42" s="34" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="U42" s="34" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3461,10 +3438,10 @@
         <v>123</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="5"/>
@@ -3472,11 +3449,11 @@
         <v>10</v>
       </c>
       <c r="H43" s="48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K43" s="29" t="s">
         <v>20</v>
@@ -3502,24 +3479,24 @@
         <v>123</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" s="48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K44" s="29" t="s">
         <v>20</v>
@@ -3545,7 +3522,7 @@
         <v>128</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="U44" s="8" t="s">
         <v>130</v>
@@ -3559,24 +3536,24 @@
         <v>123</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H45" s="48">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K45" s="29" t="s">
         <v>20</v>
@@ -3602,7 +3579,7 @@
         <v>128</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U45" s="8" t="s">
         <v>130</v>
@@ -3979,12 +3956,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N1"/>
@@ -3999,6 +3970,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Escaleta_CN_08_08_CO.xlsx
@@ -562,9 +562,6 @@
     <t>Media principal que muestra la evolución de los homínidos</t>
   </si>
   <si>
-    <t>http://profesores.aulaplaneta.com/AuxPages/RecursoProfesor.aspx?IdGuion=14150&amp;IdRecurso=727234&amp;Transparent=on</t>
-  </si>
-  <si>
     <t>Primeros homínidos</t>
   </si>
   <si>
@@ -740,6 +737,10 @@
   </si>
   <si>
     <t>Competencias: análisis de las pirámides poblacionales en los países en desarrollo y en los desarrollados</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/AuxPages/RecursoProfesor.aspx?IdGuion=14150&amp;IdRecurso=727234&amp;Transparent=on
+DI000178</t>
   </si>
 </sst>
 </file>
@@ -925,7 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1054,18 +1055,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,6 +1099,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1415,9 +1419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,81 +1451,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="78"/>
+      <c r="N1" s="74"/>
       <c r="O1" s="70" t="s">
         <v>110</v>
       </c>
       <c r="P1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="R1" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="U1" s="87" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
@@ -1530,11 +1534,11 @@
       </c>
       <c r="O2" s="71"/>
       <c r="P2" s="71"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="73"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="88"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -1544,7 +1548,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>166</v>
@@ -1575,13 +1579,13 @@
         <v>123</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>164</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
@@ -1608,7 +1612,7 @@
         <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>164</v>
@@ -1643,7 +1647,7 @@
         <v>123</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>164</v>
@@ -1678,7 +1682,7 @@
         <v>123</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>164</v>
@@ -1690,7 +1694,7 @@
         <v>168</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7" s="47">
         <v>1</v>
@@ -1699,7 +1703,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>20</v>
@@ -1739,7 +1743,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>164</v>
@@ -1760,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>20</v>
@@ -1800,7 +1804,7 @@
         <v>123</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>164</v>
@@ -1819,7 +1823,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>20</v>
@@ -1859,10 +1863,10 @@
         <v>123</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="17"/>
@@ -1890,13 +1894,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -1923,13 +1927,13 @@
         <v>123</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>131</v>
@@ -1958,13 +1962,13 @@
         <v>123</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>132</v>
@@ -1993,13 +1997,13 @@
         <v>123</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>133</v>
@@ -2028,10 +2032,10 @@
         <v>123</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>169</v>
@@ -2061,13 +2065,13 @@
         <v>123</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="18" t="s">
@@ -2080,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>20</v>
@@ -2120,13 +2124,13 @@
         <v>123</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="55" t="s">
@@ -2139,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>20</v>
@@ -2179,10 +2183,10 @@
         <v>123</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>126</v>
@@ -2198,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>20</v>
@@ -2224,7 +2228,7 @@
         <v>128</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U18" s="8" t="s">
         <v>130</v>
@@ -2238,10 +2242,10 @@
         <v>123</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="17"/>
@@ -2269,10 +2273,10 @@
         <v>123</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>172</v>
@@ -2302,10 +2306,10 @@
         <v>123</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>174</v>
@@ -2335,10 +2339,10 @@
         <v>123</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>176</v>
@@ -2356,7 +2360,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>20</v>
@@ -2376,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S22" s="34" t="s">
         <v>145</v>
@@ -2396,10 +2400,10 @@
         <v>123</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>176</v>
@@ -2417,7 +2421,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K23" s="21" t="s">
         <v>20</v>
@@ -2443,7 +2447,7 @@
         <v>128</v>
       </c>
       <c r="T23" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U23" s="34" t="s">
         <v>130</v>
@@ -2457,10 +2461,10 @@
         <v>123</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>176</v>
@@ -2478,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K24" s="41" t="s">
         <v>20</v>
@@ -2504,7 +2508,7 @@
         <v>128</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U24" s="24" t="s">
         <v>130</v>
@@ -2518,10 +2522,10 @@
         <v>123</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>126</v>
@@ -2537,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>20</v>
@@ -2577,7 +2581,7 @@
         <v>123</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>177</v>
@@ -2600,7 +2604,7 @@
       <c r="T26" s="25"/>
       <c r="U26" s="24"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>122</v>
       </c>
@@ -2608,13 +2612,13 @@
         <v>123</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>177</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="54" t="s">
@@ -2637,8 +2641,8 @@
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
-      <c r="O27" s="45" t="s">
-        <v>180</v>
+      <c r="O27" s="91" t="s">
+        <v>239</v>
       </c>
       <c r="P27" s="57" t="s">
         <v>19</v>
@@ -2647,16 +2651,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="S27" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="S27" s="24" t="s">
+      <c r="T27" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="T27" s="25" t="s">
+      <c r="U27" s="24" t="s">
         <v>207</v>
-      </c>
-      <c r="U27" s="24" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2667,13 +2671,13 @@
         <v>123</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>177</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="54" t="s">
@@ -2686,7 +2690,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>20</v>
@@ -2726,13 +2730,13 @@
         <v>123</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>177</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="54" t="s">
@@ -2745,7 +2749,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>20</v>
@@ -2785,7 +2789,7 @@
         <v>123</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>177</v>
@@ -2795,7 +2799,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H30" s="48">
         <v>14</v>
@@ -2804,7 +2808,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K30" s="29" t="s">
         <v>19</v>
@@ -2830,7 +2834,7 @@
         <v>128</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U30" s="8" t="s">
         <v>130</v>
@@ -2844,10 +2848,10 @@
         <v>123</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="17"/>
@@ -2875,13 +2879,13 @@
         <v>123</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -2910,13 +2914,13 @@
         <v>123</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -2943,13 +2947,13 @@
         <v>123</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -2976,13 +2980,13 @@
         <v>123</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="54" t="s">
@@ -2995,7 +2999,7 @@
         <v>19</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>20</v>
@@ -3021,7 +3025,7 @@
         <v>145</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U35" s="24" t="s">
         <v>147</v>
@@ -3035,17 +3039,17 @@
         <v>123</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H36" s="47">
         <v>16</v>
@@ -3054,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>20</v>
@@ -3080,7 +3084,7 @@
         <v>128</v>
       </c>
       <c r="T36" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U36" s="34" t="s">
         <v>130</v>
@@ -3094,10 +3098,10 @@
         <v>123</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>126</v>
@@ -3115,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>20</v>
@@ -3141,7 +3145,7 @@
         <v>128</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>130</v>
@@ -3155,7 +3159,7 @@
         <v>123</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>139</v>
@@ -3163,7 +3167,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="17"/>
       <c r="G38" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H38" s="47">
         <v>18</v>
@@ -3172,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K38" s="21" t="s">
         <v>20</v>
@@ -3198,7 +3202,7 @@
         <v>128</v>
       </c>
       <c r="T38" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U38" s="34" t="s">
         <v>130</v>
@@ -3212,7 +3216,7 @@
         <v>123</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>139</v>
@@ -3220,7 +3224,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H39" s="47">
         <v>19</v>
@@ -3229,7 +3233,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K39" s="21" t="s">
         <v>20</v>
@@ -3257,7 +3261,7 @@
         <v>128</v>
       </c>
       <c r="T39" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U39" s="34" t="s">
         <v>130</v>
@@ -3271,7 +3275,7 @@
         <v>123</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>139</v>
@@ -3279,7 +3283,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H40" s="47">
         <v>20</v>
@@ -3288,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>20</v>
@@ -3312,7 +3316,7 @@
         <v>128</v>
       </c>
       <c r="T40" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U40" s="34" t="s">
         <v>130</v>
@@ -3326,7 +3330,7 @@
         <v>123</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>139</v>
@@ -3334,7 +3338,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="17"/>
       <c r="G41" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H41" s="69">
         <v>21</v>
@@ -3343,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K41" s="63" t="s">
         <v>20</v>
@@ -3369,7 +3373,7 @@
         <v>128</v>
       </c>
       <c r="T41" s="67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U41" s="66" t="s">
         <v>130</v>
@@ -3383,7 +3387,7 @@
         <v>123</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>139</v>
@@ -3391,7 +3395,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H42" s="47">
         <v>22</v>
@@ -3400,7 +3404,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>20</v>
@@ -3424,7 +3428,7 @@
         <v>128</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U42" s="34" t="s">
         <v>130</v>
@@ -3438,7 +3442,7 @@
         <v>123</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>140</v>
@@ -3453,7 +3457,7 @@
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K43" s="29" t="s">
         <v>20</v>
@@ -3479,7 +3483,7 @@
         <v>123</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>140</v>
@@ -3536,7 +3540,7 @@
         <v>123</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>140</v>
@@ -3956,6 +3960,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N1"/>
@@ -3970,19 +3980,14 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O39" r:id="rId1"/>
+    <hyperlink ref="O27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
